--- a/subjects/resources/2/andan/LR6.xlsx
+++ b/subjects/resources/2/andan/LR6.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\2 курс\анализ данных\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\4 курс\Портфолио\annavolkova1.github.io\subjects\resources\2\andan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="4125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 1" sheetId="1" r:id="rId1"/>
     <sheet name="Задача 2" sheetId="2" r:id="rId2"/>
     <sheet name="Задача 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -323,7 +323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -675,51 +675,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,9 +696,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,9 +703,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -781,6 +736,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1358,42 +1358,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="G5" s="17" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="G5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="13"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="G6" s="22" t="s">
+      <c r="E6" s="5"/>
+      <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1404,22 +1404,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="G7" s="9">
+      <c r="E7" s="5"/>
+      <c r="G7" s="7">
         <v>2.1669999999999998</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>0.11749999999999999</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <f>SQRT(H7)</f>
         <v>0.34278273002005222</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <f>G7^2</f>
         <v>4.6958889999999993</v>
       </c>
@@ -1429,127 +1429,127 @@
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6">
         <v>0</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <f>(2^2/8-1/8)-(1^2/8-1/8)</f>
         <v>0.375</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A18:E18"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1589,79 +1589,79 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19">
         <v>0</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="38">
+      <c r="H6" s="23">
         <v>1.5</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="23">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="23">
         <f>SQRT(I6)</f>
         <v>0.21633307652783937</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25">
         <v>1</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="3"/>
@@ -1672,29 +1672,29 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="25"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19">
         <v>0</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="3"/>
@@ -1705,14 +1705,14 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3"/>
@@ -1723,12 +1723,12 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25">
         <v>0</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="41" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="3"/>
@@ -1751,13 +1751,13 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1783,11 +1783,11 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1798,25 +1798,25 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="26"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1829,18 +1829,18 @@
         <f>POWER(C14, 2) * (1-C14)^4</f>
         <v>1.9775390625E-2</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="26"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1888,14 +1888,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="45">
+      <c r="A4" s="18"/>
+      <c r="B4" s="30">
         <v>0</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="3"/>
@@ -1904,14 +1904,14 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="32" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="3"/>
@@ -1920,12 +1920,12 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="32" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="3"/>
@@ -1934,12 +1934,12 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="48">
+      <c r="A7" s="24"/>
+      <c r="B7" s="33">
         <v>0</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="3"/>
@@ -1960,14 +1960,14 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="45">
+      <c r="A9" s="18"/>
+      <c r="B9" s="30">
         <v>0</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="3"/>
@@ -1976,14 +1976,14 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="23">
         <v>-1</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="47" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="32" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="3"/>
@@ -1992,12 +1992,12 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="38">
+      <c r="A11" s="21"/>
+      <c r="B11" s="23">
         <v>1</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="3"/>
@@ -2006,12 +2006,12 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="48">
+      <c r="A12" s="24"/>
+      <c r="B12" s="33">
         <v>0</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="49" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="3"/>
@@ -2030,13 +2030,13 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="3"/>
@@ -2046,13 +2046,13 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="3"/>
